--- a/MyEPA/FileDatas/Template/(範本)簡報產製5_環境消毒物資.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製5_環境消毒物資.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A55370-5541-4D3B-8569-42164DF8F9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51479FC2-036C-4D53-8722-771FDAD33D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D9724E-F6A0-4444-9EB8-F9A0A3A764E7}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1217,70 +1217,70 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="2">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" s="2">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="V3" s="2">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="W3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2">
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">

--- a/MyEPA/FileDatas/Template/(範本)簡報產製5_環境消毒物資.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製5_環境消毒物資.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51479FC2-036C-4D53-8722-771FDAD33D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C00503-3543-4376-BF42-0F061C94CE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
+    <workbookView xWindow="1700" yWindow="460" windowWidth="16850" windowHeight="9620" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表5" sheetId="5" r:id="rId1"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D9724E-F6A0-4444-9EB8-F9A0A3A764E7}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1291,70 +1291,70 @@
         <v>27</v>
       </c>
       <c r="C4" s="4">
-        <v>7696</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>3313</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>11011</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>5220</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>3313</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
-        <v>11011</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
-        <v>5220</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
-        <v>7696</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
       </c>
       <c r="N4" s="4">
-        <v>3313</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4">
-        <v>11011</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4">
-        <v>5220</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
       </c>
       <c r="R4" s="4">
-        <v>7696</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
       <c r="T4" s="4">
-        <v>3313</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4">
-        <v>11011</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4">
-        <v>5220</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
         <v>0</v>
       </c>
       <c r="X4" s="4">
-        <v>3313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1363,70 +1363,70 @@
         <v>28</v>
       </c>
       <c r="C5" s="2">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>1979</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <v>1979</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <v>1979</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
       </c>
       <c r="R5" s="2">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
       </c>
       <c r="T5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" s="5">
-        <v>1979</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <v>0</v>
       </c>
       <c r="X5" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1437,70 +1437,70 @@
         <v>27</v>
       </c>
       <c r="C6" s="6">
-        <v>7219</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>2168</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
-        <v>9854</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6">
-        <v>8377</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6">
-        <v>2168</v>
+        <v>0</v>
       </c>
       <c r="J6" s="6">
-        <v>9854</v>
+        <v>0</v>
       </c>
       <c r="K6" s="6">
-        <v>8377</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6">
-        <v>7219</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="N6" s="6">
-        <v>2168</v>
+        <v>0</v>
       </c>
       <c r="O6" s="6">
-        <v>9854</v>
+        <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>8377</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="3">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="R6" s="6">
-        <v>7219</v>
+        <v>0</v>
       </c>
       <c r="S6" s="3">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="T6" s="6">
-        <v>2168</v>
+        <v>0</v>
       </c>
       <c r="U6" s="6">
-        <v>9854</v>
+        <v>0</v>
       </c>
       <c r="V6" s="6">
-        <v>8377</v>
+        <v>0</v>
       </c>
       <c r="W6" s="3">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="X6" s="6">
-        <v>2168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1509,70 +1509,70 @@
         <v>28</v>
       </c>
       <c r="C7" s="5">
-        <v>1363</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>8499</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>8499</v>
+        <v>0</v>
       </c>
       <c r="L7" s="5">
-        <v>1363</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="O7" s="5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="5">
-        <v>8499</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
       </c>
       <c r="R7" s="5">
-        <v>1363</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="U7" s="5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V7" s="5">
-        <v>8499</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2">
         <v>0</v>
       </c>
       <c r="X7" s="2">
-        <v>565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/MyEPA/FileDatas/Template/(範本)簡報產製5_環境消毒物資.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製5_環境消毒物資.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C00503-3543-4376-BF42-0F061C94CE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BA0F14-F0E7-417E-8844-211262C737E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="460" windowWidth="16850" windowHeight="9620" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表5" sheetId="5" r:id="rId1"/>
@@ -1112,21 +1112,14 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.90625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="13" customWidth="1"/>
-    <col min="4" max="11" width="9.453125" style="13" customWidth="1"/>
-    <col min="12" max="14" width="9.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="9.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="9.08984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="13"/>
+    <col min="2" max="2" width="14.54296875" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="12.1796875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">

--- a/MyEPA/FileDatas/Template/(範本)簡報產製5_環境消毒物資.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製5_環境消毒物資.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BA0F14-F0E7-417E-8844-211262C737E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FF57E7-2207-40F6-B77A-0E851169C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表5" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -1147,43 +1147,43 @@
         <v>2</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>16</v>
@@ -1195,7 +1195,7 @@
         <v>18</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>20</v>
@@ -1298,10 +1298,10 @@
       <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="4">
@@ -1313,10 +1313,10 @@
       <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4" s="4">
@@ -1325,10 +1325,10 @@
       <c r="P4" s="4">
         <v>0</v>
       </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
         <v>0</v>
       </c>
       <c r="S4" s="1">
@@ -1364,13 +1364,13 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="2">
@@ -1379,10 +1379,10 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
         <v>0</v>
       </c>
       <c r="M5" s="2">
@@ -1394,10 +1394,10 @@
       <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <v>0</v>
       </c>
       <c r="R5" s="2">
@@ -1412,7 +1412,7 @@
       <c r="U5" s="2">
         <v>0</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="2">
         <v>0</v>
       </c>
       <c r="W5" s="2">
@@ -1444,10 +1444,10 @@
       <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="6">
@@ -1459,10 +1459,10 @@
       <c r="L6" s="6">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
         <v>0</v>
       </c>
       <c r="O6" s="6">
@@ -1471,10 +1471,10 @@
       <c r="P6" s="6">
         <v>0</v>
       </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6">
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
         <v>0</v>
       </c>
       <c r="S6" s="3">
@@ -1516,13 +1516,13 @@
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="5">
@@ -1531,22 +1531,22 @@
       <c r="L7" s="5">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="5">
         <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
       </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
         <v>0</v>
       </c>
       <c r="S7" s="2">

--- a/MyEPA/FileDatas/Template/(範本)簡報產製5_環境消毒物資.xlsx
+++ b/MyEPA/FileDatas/Template/(範本)簡報產製5_環境消毒物資.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\MyEPA\MyEPA\FileDatas\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FF57E7-2207-40F6-B77A-0E851169C5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B013014B-32BD-413B-9881-2C4A8ADA83C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1A370C35-B0B9-4372-83E2-DA2C2D08224A}"/>
   </bookViews>
@@ -708,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -732,9 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1112,68 +1109,68 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.90625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="12.1796875" style="13"/>
+    <col min="1" max="1" width="20.90625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="12.1796875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="9" t="s">
@@ -1185,30 +1182,30 @@
       <c r="R2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2">
         <v>0</v>
       </c>
@@ -1277,10 +1274,10 @@
       </c>
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="4">
@@ -1351,8 +1348,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="20"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="2">
@@ -1423,10 +1420,10 @@
       </c>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="6">
@@ -1497,8 +1494,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="7" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="20"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="5">
